--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Fzd4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.92461636281894</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H2">
-        <v>2.92461636281894</v>
+        <v>9.698725</v>
       </c>
       <c r="I2">
-        <v>0.5480603350564101</v>
+        <v>0.5584514397475191</v>
       </c>
       <c r="J2">
-        <v>0.5480603350564101</v>
+        <v>0.5584514397475192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>20.2523515829116</v>
+        <v>19.48350866666667</v>
       </c>
       <c r="N2">
-        <v>20.2523515829116</v>
+        <v>58.450526</v>
       </c>
       <c r="O2">
-        <v>0.4668632877072912</v>
+        <v>0.3081250754721727</v>
       </c>
       <c r="P2">
-        <v>0.4668632877072912</v>
+        <v>0.3081250754721726</v>
       </c>
       <c r="Q2">
-        <v>59.23035882494533</v>
+        <v>62.98839753103888</v>
       </c>
       <c r="R2">
-        <v>59.23035882494533</v>
+        <v>566.89557777935</v>
       </c>
       <c r="S2">
-        <v>0.2558692498863952</v>
+        <v>0.1720728920197478</v>
       </c>
       <c r="T2">
-        <v>0.2558692498863952</v>
+        <v>0.1720728920197478</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +590,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.92461636281894</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H3">
-        <v>2.92461636281894</v>
+        <v>9.698725</v>
       </c>
       <c r="I3">
-        <v>0.5480603350564101</v>
+        <v>0.5584514397475191</v>
       </c>
       <c r="J3">
-        <v>0.5480603350564101</v>
+        <v>0.5584514397475192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.1272674965162</v>
+        <v>20.343383</v>
       </c>
       <c r="N3">
-        <v>23.1272674965162</v>
+        <v>61.03014900000001</v>
       </c>
       <c r="O3">
-        <v>0.5331367122927089</v>
+        <v>0.3217236961512193</v>
       </c>
       <c r="P3">
-        <v>0.5331367122927089</v>
+        <v>0.3217236961512193</v>
       </c>
       <c r="Q3">
-        <v>67.63838494760191</v>
+        <v>65.76829242889167</v>
       </c>
       <c r="R3">
-        <v>67.63838494760191</v>
+        <v>591.9146318600251</v>
       </c>
       <c r="S3">
-        <v>0.2921910851700149</v>
+        <v>0.1796670613165418</v>
       </c>
       <c r="T3">
-        <v>0.2921910851700149</v>
+        <v>0.1796670613165418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,60 +652,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.41168728068031</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H4">
-        <v>2.41168728068031</v>
+        <v>9.698725</v>
       </c>
       <c r="I4">
-        <v>0.4519396649435901</v>
+        <v>0.5584514397475191</v>
       </c>
       <c r="J4">
-        <v>0.4519396649435901</v>
+        <v>0.5584514397475192</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>20.2523515829116</v>
+        <v>0.1305583333333333</v>
       </c>
       <c r="N4">
-        <v>20.2523515829116</v>
+        <v>0.391675</v>
       </c>
       <c r="O4">
-        <v>0.4668632877072912</v>
+        <v>0.002064735720865253</v>
       </c>
       <c r="P4">
-        <v>0.4668632877072912</v>
+        <v>0.002064735720865253</v>
       </c>
       <c r="Q4">
-        <v>48.84233871637365</v>
+        <v>0.4220831238194444</v>
       </c>
       <c r="R4">
-        <v>48.84233871637365</v>
+        <v>3.798748114375</v>
       </c>
       <c r="S4">
-        <v>0.2109940378208961</v>
+        <v>0.001153054636015332</v>
       </c>
       <c r="T4">
-        <v>0.2109940378208961</v>
+        <v>0.001153054636015333</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,52 +717,300 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.41168728068031</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H5">
-        <v>2.41168728068031</v>
+        <v>9.698725</v>
       </c>
       <c r="I5">
-        <v>0.4519396649435901</v>
+        <v>0.5584514397475191</v>
       </c>
       <c r="J5">
-        <v>0.4519396649435901</v>
+        <v>0.5584514397475192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.1272674965162</v>
+        <v>23.275017</v>
       </c>
       <c r="N5">
-        <v>23.1272674965162</v>
+        <v>69.825051</v>
       </c>
       <c r="O5">
-        <v>0.5331367122927089</v>
+        <v>0.3680864926557428</v>
       </c>
       <c r="P5">
-        <v>0.5331367122927089</v>
+        <v>0.3680864926557428</v>
       </c>
       <c r="Q5">
-        <v>55.77573685823927</v>
+        <v>75.245996417775</v>
       </c>
       <c r="R5">
-        <v>55.77573685823927</v>
+        <v>677.2139677599749</v>
       </c>
       <c r="S5">
-        <v>0.240945627122694</v>
+        <v>0.2055584317752142</v>
       </c>
       <c r="T5">
-        <v>0.240945627122694</v>
+        <v>0.2055584317752142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.556150666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.668452</v>
+      </c>
+      <c r="I6">
+        <v>0.4415485602524809</v>
+      </c>
+      <c r="J6">
+        <v>0.441548560252481</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>19.48350866666667</v>
+      </c>
+      <c r="N6">
+        <v>58.450526</v>
+      </c>
+      <c r="O6">
+        <v>0.3081250754721727</v>
+      </c>
+      <c r="P6">
+        <v>0.3081250754721726</v>
+      </c>
+      <c r="Q6">
+        <v>49.80278366730578</v>
+      </c>
+      <c r="R6">
+        <v>448.225053005752</v>
+      </c>
+      <c r="S6">
+        <v>0.1360521834524249</v>
+      </c>
+      <c r="T6">
+        <v>0.1360521834524248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.556150666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.668452</v>
+      </c>
+      <c r="I7">
+        <v>0.4415485602524809</v>
+      </c>
+      <c r="J7">
+        <v>0.441548560252481</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.343383</v>
+      </c>
+      <c r="N7">
+        <v>61.03014900000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="P7">
+        <v>0.3217236961512193</v>
+      </c>
+      <c r="Q7">
+        <v>52.00075201770535</v>
+      </c>
+      <c r="R7">
+        <v>468.0067681593481</v>
+      </c>
+      <c r="S7">
+        <v>0.1420566348346775</v>
+      </c>
+      <c r="T7">
+        <v>0.1420566348346775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.556150666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.668452</v>
+      </c>
+      <c r="I8">
+        <v>0.4415485602524809</v>
+      </c>
+      <c r="J8">
+        <v>0.441548560252481</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1305583333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.391675</v>
+      </c>
+      <c r="O8">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="P8">
+        <v>0.002064735720865253</v>
+      </c>
+      <c r="Q8">
+        <v>0.3337267707888889</v>
+      </c>
+      <c r="R8">
+        <v>3.0035409371</v>
+      </c>
+      <c r="S8">
+        <v>0.0009116810848499208</v>
+      </c>
+      <c r="T8">
+        <v>0.0009116810848499209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.556150666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.668452</v>
+      </c>
+      <c r="I9">
+        <v>0.4415485602524809</v>
+      </c>
+      <c r="J9">
+        <v>0.441548560252481</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>23.275017</v>
+      </c>
+      <c r="N9">
+        <v>69.825051</v>
+      </c>
+      <c r="O9">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="P9">
+        <v>0.3680864926557428</v>
+      </c>
+      <c r="Q9">
+        <v>59.49445022122801</v>
+      </c>
+      <c r="R9">
+        <v>535.4500519910521</v>
+      </c>
+      <c r="S9">
+        <v>0.1625280608805286</v>
+      </c>
+      <c r="T9">
+        <v>0.1625280608805286</v>
       </c>
     </row>
   </sheetData>
